--- a/out/CE/FigA_3.xlsx
+++ b/out/CE/FigA_3.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAC706E-323F-4853-90CE-85C7A9B584C5}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.81083000000000005</v>
+        <v>0.80884999999999996</v>
       </c>
       <c r="B1">
-        <v>0.79479999999999995</v>
+        <v>0.81886999999999999</v>
       </c>
       <c r="C1">
-        <v>0.80281500000000006</v>
+        <v>0.80589999999999995</v>
+      </c>
+      <c r="D1">
+        <v>0.80398999999999998</v>
+      </c>
+      <c r="E1">
+        <v>0.80181000000000002</v>
+      </c>
+      <c r="F1">
+        <v>0.81689000000000001</v>
+      </c>
+      <c r="G1">
+        <v>0.79766000000000004</v>
+      </c>
+      <c r="H1">
+        <v>0.78435999999999995</v>
+      </c>
+      <c r="I1">
+        <v>0.80086999999999997</v>
+      </c>
+      <c r="J1">
+        <v>0.81130999999999998</v>
+      </c>
+      <c r="K1">
+        <v>0.82365999999999995</v>
+      </c>
+      <c r="L1">
+        <v>0.80218</v>
+      </c>
+      <c r="M1">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="N1">
+        <v>0.79862</v>
+      </c>
+      <c r="O1">
+        <v>0.8125</v>
+      </c>
+      <c r="P1">
+        <v>0.80427000000000004</v>
+      </c>
+      <c r="Q1">
+        <v>0.82538</v>
+      </c>
+      <c r="R1">
+        <v>0.79393000000000002</v>
+      </c>
+      <c r="S1">
+        <v>0.81284999999999996</v>
+      </c>
+      <c r="T1">
+        <v>0.80388000000000004</v>
+      </c>
+      <c r="U1">
+        <v>0.80789</v>
+      </c>
+      <c r="V1">
+        <v>0.81523000000000001</v>
+      </c>
+      <c r="W1">
+        <v>0.81630000000000003</v>
+      </c>
+      <c r="X1">
+        <v>0.80196000000000001</v>
+      </c>
+      <c r="Y1">
+        <v>0.81472999999999995</v>
+      </c>
+      <c r="Z1">
+        <v>0.81157999999999997</v>
+      </c>
+      <c r="AA1">
+        <v>0.81308000000000002</v>
+      </c>
+      <c r="AB1">
+        <v>0.81686000000000003</v>
+      </c>
+      <c r="AC1">
+        <v>0.79342999999999997</v>
+      </c>
+      <c r="AD1">
+        <v>0.78300999999999998</v>
+      </c>
+      <c r="AE1">
+        <v>0.77786</v>
+      </c>
+      <c r="AF1">
+        <v>0.81976000000000004</v>
+      </c>
+      <c r="AG1">
+        <v>0.78957999999999995</v>
+      </c>
+      <c r="AH1">
+        <v>0.79200999999999999</v>
+      </c>
+      <c r="AI1">
+        <v>0.80411999999999995</v>
+      </c>
+      <c r="AJ1">
+        <v>0.77461000000000002</v>
+      </c>
+      <c r="AK1">
+        <v>0.81337000000000004</v>
+      </c>
+      <c r="AL1">
+        <v>0.80247999999999997</v>
+      </c>
+      <c r="AM1">
+        <v>0.79861000000000004</v>
+      </c>
+      <c r="AN1">
+        <v>0.80469999999999997</v>
+      </c>
+      <c r="AO1">
+        <v>0.79366000000000003</v>
+      </c>
+      <c r="AP1">
+        <v>0.80471999999999999</v>
+      </c>
+      <c r="AQ1">
+        <v>0.78627000000000002</v>
+      </c>
+      <c r="AR1">
+        <v>0.79130999999999996</v>
+      </c>
+      <c r="AS1">
+        <v>0.81344000000000005</v>
+      </c>
+      <c r="AT1">
+        <v>0.78952999999999995</v>
+      </c>
+      <c r="AU1">
+        <v>0.80037999999999998</v>
+      </c>
+      <c r="AV1">
+        <v>0.80781999999999998</v>
+      </c>
+      <c r="AW1">
+        <v>0.81179000000000001</v>
+      </c>
+      <c r="AX1">
+        <v>0.81311</v>
+      </c>
+      <c r="AY1">
+        <v>0.81269000000000002</v>
+      </c>
+      <c r="AZ1">
+        <v>0.82138999999999995</v>
+      </c>
+      <c r="BA1">
+        <v>0.77519000000000005</v>
+      </c>
+      <c r="BB1">
+        <v>0.80876000000000003</v>
+      </c>
+      <c r="BC1">
+        <v>0.80828</v>
+      </c>
+      <c r="BD1">
+        <v>0.82501000000000002</v>
+      </c>
+      <c r="BE1">
+        <v>0.80484</v>
+      </c>
+      <c r="BF1">
+        <v>0.82371000000000005</v>
+      </c>
+      <c r="BG1">
+        <v>0.79856000000000005</v>
+      </c>
+      <c r="BH1">
+        <v>0.8054</v>
+      </c>
+      <c r="BI1">
+        <v>0.79744000000000004</v>
+      </c>
+      <c r="BJ1">
+        <v>0.79247000000000001</v>
+      </c>
+      <c r="BK1">
+        <v>0.80305000000000004</v>
+      </c>
+      <c r="BL1">
+        <v>0.78252999999999995</v>
+      </c>
+      <c r="BM1">
+        <v>0.79696999999999996</v>
+      </c>
+      <c r="BN1">
+        <v>0.80810000000000004</v>
+      </c>
+      <c r="BO1">
+        <v>0.80608000000000002</v>
+      </c>
+      <c r="BP1">
+        <v>0.80293000000000003</v>
+      </c>
+      <c r="BQ1">
+        <v>0.79132000000000002</v>
+      </c>
+      <c r="BR1">
+        <v>0.79373000000000005</v>
+      </c>
+      <c r="BS1">
+        <v>0.80271000000000003</v>
+      </c>
+      <c r="BT1">
+        <v>0.76366000000000001</v>
+      </c>
+      <c r="BU1">
+        <v>0.78715999999999997</v>
+      </c>
+      <c r="BV1">
+        <v>0.81233999999999995</v>
+      </c>
+      <c r="BW1">
+        <v>0.82038</v>
+      </c>
+      <c r="BX1">
+        <v>0.82708000000000004</v>
+      </c>
+      <c r="BY1">
+        <v>0.82652000000000003</v>
+      </c>
+      <c r="BZ1">
+        <v>0.81245999999999996</v>
+      </c>
+      <c r="CA1">
+        <v>0.80984</v>
+      </c>
+      <c r="CB1">
+        <v>0.81010000000000004</v>
+      </c>
+      <c r="CC1">
+        <v>0.80657000000000001</v>
+      </c>
+      <c r="CD1">
+        <v>0.81250999999999995</v>
+      </c>
+      <c r="CE1">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="CF1">
+        <v>0.79157999999999995</v>
+      </c>
+      <c r="CG1">
+        <v>0.82072999999999996</v>
+      </c>
+      <c r="CH1">
+        <v>0.81621999999999995</v>
+      </c>
+      <c r="CI1">
+        <v>0.80284999999999995</v>
+      </c>
+      <c r="CJ1">
+        <v>0.81333</v>
+      </c>
+      <c r="CK1">
+        <v>0.81081000000000003</v>
+      </c>
+      <c r="CL1">
+        <v>0.79418</v>
+      </c>
+      <c r="CM1">
+        <v>0.80683000000000005</v>
+      </c>
+      <c r="CN1">
+        <v>0.76890999999999998</v>
+      </c>
+      <c r="CO1">
+        <v>0.80589999999999995</v>
+      </c>
+      <c r="CP1">
+        <v>0.78297000000000005</v>
+      </c>
+      <c r="CQ1">
+        <v>0.79744000000000004</v>
+      </c>
+      <c r="CR1">
+        <v>0.79344000000000003</v>
+      </c>
+      <c r="CS1">
+        <v>0.80308000000000002</v>
+      </c>
+      <c r="CT1">
+        <v>0.79513999999999996</v>
+      </c>
+      <c r="CU1">
+        <v>0.78520000000000001</v>
+      </c>
+      <c r="CV1">
+        <v>0.81249000000000005</v>
+      </c>
+      <c r="CW1">
+        <v>0.80340260000000041</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.80286999999999997</v>
+        <v>0.79207000000000005</v>
       </c>
       <c r="B2">
+        <v>0.79676000000000002</v>
+      </c>
+      <c r="C2">
+        <v>0.81298000000000004</v>
+      </c>
+      <c r="D2">
+        <v>0.79808999999999997</v>
+      </c>
+      <c r="E2">
+        <v>0.77785000000000004</v>
+      </c>
+      <c r="F2">
+        <v>0.81557999999999997</v>
+      </c>
+      <c r="G2">
+        <v>0.78612000000000004</v>
+      </c>
+      <c r="H2">
+        <v>0.79781999999999997</v>
+      </c>
+      <c r="I2">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="J2">
+        <v>0.79268000000000005</v>
+      </c>
+      <c r="K2">
+        <v>0.79486999999999997</v>
+      </c>
+      <c r="L2">
+        <v>0.80149000000000004</v>
+      </c>
+      <c r="M2">
+        <v>0.79861000000000004</v>
+      </c>
+      <c r="N2">
+        <v>0.80108000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.82416999999999996</v>
+      </c>
+      <c r="P2">
+        <v>0.78942000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="R2">
+        <v>0.79757999999999996</v>
+      </c>
+      <c r="S2">
+        <v>0.80815999999999999</v>
+      </c>
+      <c r="T2">
+        <v>0.79635999999999996</v>
+      </c>
+      <c r="U2">
+        <v>0.78205999999999998</v>
+      </c>
+      <c r="V2">
+        <v>0.80223</v>
+      </c>
+      <c r="W2">
+        <v>0.80244000000000004</v>
+      </c>
+      <c r="X2">
+        <v>0.76781999999999995</v>
+      </c>
+      <c r="Y2">
+        <v>0.79152999999999996</v>
+      </c>
+      <c r="Z2">
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="AA2">
+        <v>0.80232000000000003</v>
+      </c>
+      <c r="AB2">
+        <v>0.76948000000000005</v>
+      </c>
+      <c r="AC2">
+        <v>0.81940999999999997</v>
+      </c>
+      <c r="AD2">
+        <v>0.77212000000000003</v>
+      </c>
+      <c r="AE2">
+        <v>0.79596999999999996</v>
+      </c>
+      <c r="AF2">
+        <v>0.80867</v>
+      </c>
+      <c r="AG2">
+        <v>0.80610000000000004</v>
+      </c>
+      <c r="AH2">
+        <v>0.79101999999999995</v>
+      </c>
+      <c r="AI2">
+        <v>0.78754000000000002</v>
+      </c>
+      <c r="AJ2">
+        <v>0.81140000000000001</v>
+      </c>
+      <c r="AK2">
+        <v>0.79498000000000002</v>
+      </c>
+      <c r="AL2">
+        <v>0.81118000000000001</v>
+      </c>
+      <c r="AM2">
+        <v>0.80062999999999995</v>
+      </c>
+      <c r="AN2">
+        <v>0.79351000000000005</v>
+      </c>
+      <c r="AO2">
+        <v>0.79383999999999999</v>
+      </c>
+      <c r="AP2">
+        <v>0.79371999999999998</v>
+      </c>
+      <c r="AQ2">
+        <v>0.77956000000000003</v>
+      </c>
+      <c r="AR2">
+        <v>0.78932000000000002</v>
+      </c>
+      <c r="AS2">
+        <v>0.82252999999999998</v>
+      </c>
+      <c r="AT2">
+        <v>0.79683999999999999</v>
+      </c>
+      <c r="AU2">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="AV2">
+        <v>0.78742000000000001</v>
+      </c>
+      <c r="AW2">
+        <v>0.80893999999999999</v>
+      </c>
+      <c r="AX2">
+        <v>0.79484999999999995</v>
+      </c>
+      <c r="AY2">
+        <v>0.79908000000000001</v>
+      </c>
+      <c r="AZ2">
+        <v>0.81738999999999995</v>
+      </c>
+      <c r="BA2">
+        <v>0.80696000000000001</v>
+      </c>
+      <c r="BB2">
+        <v>0.79647999999999997</v>
+      </c>
+      <c r="BC2">
+        <v>0.81103000000000003</v>
+      </c>
+      <c r="BD2">
+        <v>0.78925000000000001</v>
+      </c>
+      <c r="BE2">
+        <v>0.78874</v>
+      </c>
+      <c r="BF2">
+        <v>0.79696999999999996</v>
+      </c>
+      <c r="BG2">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="BH2">
+        <v>0.79052</v>
+      </c>
+      <c r="BI2">
+        <v>0.78574999999999995</v>
+      </c>
+      <c r="BJ2">
+        <v>0.79791999999999996</v>
+      </c>
+      <c r="BK2">
+        <v>0.80201999999999996</v>
+      </c>
+      <c r="BL2">
+        <v>0.80525000000000002</v>
+      </c>
+      <c r="BM2">
+        <v>0.80078000000000005</v>
+      </c>
+      <c r="BN2">
+        <v>0.82123999999999997</v>
+      </c>
+      <c r="BO2">
+        <v>0.78664000000000001</v>
+      </c>
+      <c r="BP2">
+        <v>0.82350000000000001</v>
+      </c>
+      <c r="BQ2">
+        <v>0.80062</v>
+      </c>
+      <c r="BR2">
+        <v>0.77922999999999998</v>
+      </c>
+      <c r="BS2">
+        <v>0.79307000000000005</v>
+      </c>
+      <c r="BT2">
+        <v>0.79778000000000004</v>
+      </c>
+      <c r="BU2">
+        <v>0.81005000000000005</v>
+      </c>
+      <c r="BV2">
+        <v>0.80054999999999998</v>
+      </c>
+      <c r="BW2">
+        <v>0.78664000000000001</v>
+      </c>
+      <c r="BX2">
+        <v>0.79913999999999996</v>
+      </c>
+      <c r="BY2">
+        <v>0.79698999999999998</v>
+      </c>
+      <c r="BZ2">
+        <v>0.78556000000000004</v>
+      </c>
+      <c r="CA2">
+        <v>0.76914000000000005</v>
+      </c>
+      <c r="CB2">
+        <v>0.78805000000000003</v>
+      </c>
+      <c r="CC2">
+        <v>0.81077999999999995</v>
+      </c>
+      <c r="CD2">
+        <v>0.79520999999999997</v>
+      </c>
+      <c r="CE2">
+        <v>0.8</v>
+      </c>
+      <c r="CF2">
+        <v>0.79037999999999997</v>
+      </c>
+      <c r="CG2">
+        <v>0.79588999999999999</v>
+      </c>
+      <c r="CH2">
+        <v>0.80130999999999997</v>
+      </c>
+      <c r="CI2">
+        <v>0.79439000000000004</v>
+      </c>
+      <c r="CJ2">
+        <v>0.80405000000000004</v>
+      </c>
+      <c r="CK2">
+        <v>0.78520999999999996</v>
+      </c>
+      <c r="CL2">
+        <v>0.78369</v>
+      </c>
+      <c r="CM2">
+        <v>0.80308999999999997</v>
+      </c>
+      <c r="CN2">
+        <v>0.80689999999999995</v>
+      </c>
+      <c r="CO2">
+        <v>0.78269</v>
+      </c>
+      <c r="CP2">
+        <v>0.80940999999999996</v>
+      </c>
+      <c r="CQ2">
+        <v>0.82074000000000003</v>
+      </c>
+      <c r="CR2">
+        <v>0.79557</v>
+      </c>
+      <c r="CS2">
+        <v>0.81572999999999996</v>
+      </c>
+      <c r="CT2">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="CU2">
+        <v>0.79327999999999999</v>
+      </c>
+      <c r="CV2">
+        <v>0.82340000000000002</v>
+      </c>
+      <c r="CW2">
+        <v>0.79731880000000033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.78110000000000002</v>
+      </c>
+      <c r="B3">
+        <v>0.79064999999999996</v>
+      </c>
+      <c r="C3">
+        <v>0.79078999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.80747999999999998</v>
+      </c>
+      <c r="E3">
+        <v>0.77232000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.77188000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.80611999999999995</v>
+      </c>
+      <c r="H3">
+        <v>0.77368000000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.77102999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.78554000000000002</v>
+      </c>
+      <c r="K3">
+        <v>0.79152999999999996</v>
+      </c>
+      <c r="L3">
+        <v>0.76188999999999996</v>
+      </c>
+      <c r="M3">
+        <v>0.78205000000000002</v>
+      </c>
+      <c r="N3">
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.77927999999999997</v>
+      </c>
+      <c r="P3">
+        <v>0.79103999999999997</v>
+      </c>
+      <c r="Q3">
+        <v>0.80493999999999999</v>
+      </c>
+      <c r="R3">
+        <v>0.77710000000000001</v>
+      </c>
+      <c r="S3">
+        <v>0.77132999999999996</v>
+      </c>
+      <c r="T3">
+        <v>0.78273000000000004</v>
+      </c>
+      <c r="U3">
+        <v>0.77693000000000001</v>
+      </c>
+      <c r="V3">
+        <v>0.78669999999999995</v>
+      </c>
+      <c r="W3">
+        <v>0.79759999999999998</v>
+      </c>
+      <c r="X3">
+        <v>0.78263000000000005</v>
+      </c>
+      <c r="Y3">
+        <v>0.77295999999999998</v>
+      </c>
+      <c r="Z3">
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="AA3">
+        <v>0.79222000000000004</v>
+      </c>
+      <c r="AB3">
+        <v>0.79486000000000001</v>
+      </c>
+      <c r="AC3">
+        <v>0.78491999999999995</v>
+      </c>
+      <c r="AD3">
+        <v>0.79244000000000003</v>
+      </c>
+      <c r="AE3">
+        <v>0.79666000000000003</v>
+      </c>
+      <c r="AF3">
+        <v>0.80918000000000001</v>
+      </c>
+      <c r="AG3">
+        <v>0.79183999999999999</v>
+      </c>
+      <c r="AH3">
+        <v>0.78437000000000001</v>
+      </c>
+      <c r="AI3">
+        <v>0.79261999999999999</v>
+      </c>
+      <c r="AJ3">
+        <v>0.75217999999999996</v>
+      </c>
+      <c r="AK3">
+        <v>0.80442999999999998</v>
+      </c>
+      <c r="AL3">
+        <v>0.79315999999999998</v>
+      </c>
+      <c r="AM3">
+        <v>0.7903</v>
+      </c>
+      <c r="AN3">
+        <v>0.76036000000000004</v>
+      </c>
+      <c r="AO3">
+        <v>0.78818999999999995</v>
+      </c>
+      <c r="AP3">
+        <v>0.80842999999999998</v>
+      </c>
+      <c r="AQ3">
+        <v>0.77314000000000005</v>
+      </c>
+      <c r="AR3">
+        <v>0.78576999999999997</v>
+      </c>
+      <c r="AS3">
+        <v>0.77659</v>
+      </c>
+      <c r="AT3">
+        <v>0.78452999999999995</v>
+      </c>
+      <c r="AU3">
+        <v>0.80413999999999997</v>
+      </c>
+      <c r="AV3">
+        <v>0.79178999999999999</v>
+      </c>
+      <c r="AW3">
+        <v>0.76880000000000004</v>
+      </c>
+      <c r="AX3">
+        <v>0.79815999999999998</v>
+      </c>
+      <c r="AY3">
+        <v>0.78225999999999996</v>
+      </c>
+      <c r="AZ3">
+        <v>0.80159999999999998</v>
+      </c>
+      <c r="BA3">
+        <v>0.78718999999999995</v>
+      </c>
+      <c r="BB3">
+        <v>0.78952999999999995</v>
+      </c>
+      <c r="BC3">
+        <v>0.79905000000000004</v>
+      </c>
+      <c r="BD3">
+        <v>0.77166000000000001</v>
+      </c>
+      <c r="BE3">
+        <v>0.77793999999999996</v>
+      </c>
+      <c r="BF3">
+        <v>0.79008999999999996</v>
+      </c>
+      <c r="BG3">
+        <v>0.76758999999999999</v>
+      </c>
+      <c r="BH3">
+        <v>0.79710999999999999</v>
+      </c>
+      <c r="BI3">
+        <v>0.78049000000000002</v>
+      </c>
+      <c r="BJ3">
+        <v>0.77256999999999998</v>
+      </c>
+      <c r="BK3">
+        <v>0.77881999999999996</v>
+      </c>
+      <c r="BL3">
+        <v>0.76822000000000001</v>
+      </c>
+      <c r="BM3">
+        <v>0.77215</v>
+      </c>
+      <c r="BN3">
+        <v>0.76015999999999995</v>
+      </c>
+      <c r="BO3">
+        <v>0.78890000000000005</v>
+      </c>
+      <c r="BP3">
+        <v>0.77856999999999998</v>
+      </c>
+      <c r="BQ3">
+        <v>0.79635999999999996</v>
+      </c>
+      <c r="BR3">
+        <v>0.78193999999999997</v>
+      </c>
+      <c r="BS3">
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="BT3">
+        <v>0.79249000000000003</v>
+      </c>
+      <c r="BU3">
+        <v>0.79857999999999996</v>
+      </c>
+      <c r="BV3">
+        <v>0.77732999999999997</v>
+      </c>
+      <c r="BW3">
+        <v>0.78563000000000005</v>
+      </c>
+      <c r="BX3">
+        <v>0.78303</v>
+      </c>
+      <c r="BY3">
+        <v>0.77934999999999999</v>
+      </c>
+      <c r="BZ3">
+        <v>0.80371999999999999</v>
+      </c>
+      <c r="CA3">
+        <v>0.79413999999999996</v>
+      </c>
+      <c r="CB3">
+        <v>0.80152000000000001</v>
+      </c>
+      <c r="CC3">
+        <v>0.76270000000000004</v>
+      </c>
+      <c r="CD3">
+        <v>0.81194</v>
+      </c>
+      <c r="CE3">
+        <v>0.77127999999999997</v>
+      </c>
+      <c r="CF3">
+        <v>0.79820999999999998</v>
+      </c>
+      <c r="CG3">
+        <v>0.78066999999999998</v>
+      </c>
+      <c r="CH3">
+        <v>0.78842000000000001</v>
+      </c>
+      <c r="CI3">
+        <v>0.79085000000000005</v>
+      </c>
+      <c r="CJ3">
+        <v>0.80535000000000001</v>
+      </c>
+      <c r="CK3">
+        <v>0.78225999999999996</v>
+      </c>
+      <c r="CL3">
+        <v>0.76053999999999999</v>
+      </c>
+      <c r="CM3">
+        <v>0.77705999999999997</v>
+      </c>
+      <c r="CN3">
+        <v>0.78207000000000004</v>
+      </c>
+      <c r="CO3">
+        <v>0.79856000000000005</v>
+      </c>
+      <c r="CP3">
+        <v>0.77297000000000005</v>
+      </c>
+      <c r="CQ3">
+        <v>0.80042000000000002</v>
+      </c>
+      <c r="CR3">
+        <v>0.79015999999999997</v>
+      </c>
+      <c r="CS3">
+        <v>0.79449000000000003</v>
+      </c>
+      <c r="CT3">
+        <v>0.76739000000000002</v>
+      </c>
+      <c r="CU3">
+        <v>0.77283000000000002</v>
+      </c>
+      <c r="CV3">
+        <v>0.78915999999999997</v>
+      </c>
+      <c r="CW3">
+        <v>0.78530200000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.79435999999999996</v>
+      </c>
+      <c r="B4">
+        <v>0.78505000000000003</v>
+      </c>
+      <c r="C4">
+        <v>0.77864999999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.78039999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.77449000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.76239999999999997</v>
+      </c>
+      <c r="H4">
+        <v>0.78588000000000002</v>
+      </c>
+      <c r="I4">
+        <v>0.78171000000000002</v>
+      </c>
+      <c r="J4">
+        <v>0.76344999999999996</v>
+      </c>
+      <c r="K4">
+        <v>0.76127</v>
+      </c>
+      <c r="L4">
+        <v>0.76763000000000003</v>
+      </c>
+      <c r="M4">
+        <v>0.78851000000000004</v>
+      </c>
+      <c r="N4">
+        <v>0.78164999999999996</v>
+      </c>
+      <c r="O4">
+        <v>0.79647999999999997</v>
+      </c>
+      <c r="P4">
+        <v>0.79825000000000002</v>
+      </c>
+      <c r="Q4">
+        <v>0.80105000000000004</v>
+      </c>
+      <c r="R4">
+        <v>0.78176000000000001</v>
+      </c>
+      <c r="S4">
+        <v>0.77683000000000002</v>
+      </c>
+      <c r="T4">
+        <v>0.79984999999999995</v>
+      </c>
+      <c r="U4">
+        <v>0.78276999999999997</v>
+      </c>
+      <c r="V4">
+        <v>0.7893</v>
+      </c>
+      <c r="W4">
+        <v>0.81474000000000002</v>
+      </c>
+      <c r="X4">
+        <v>0.78078000000000003</v>
+      </c>
+      <c r="Y4">
+        <v>0.76522000000000001</v>
+      </c>
+      <c r="Z4">
+        <v>0.78395000000000004</v>
+      </c>
+      <c r="AA4">
+        <v>0.76021000000000005</v>
+      </c>
+      <c r="AB4">
+        <v>0.76419000000000004</v>
+      </c>
+      <c r="AC4">
+        <v>0.80650999999999995</v>
+      </c>
+      <c r="AD4">
+        <v>0.77851000000000004</v>
+      </c>
+      <c r="AE4">
+        <v>0.80833999999999995</v>
+      </c>
+      <c r="AF4">
+        <v>0.76663999999999999</v>
+      </c>
+      <c r="AG4">
         <v>0.79605000000000004</v>
       </c>
-      <c r="C2">
-        <v>0.79946000000000006</v>
+      <c r="AH4">
+        <v>0.76926000000000005</v>
+      </c>
+      <c r="AI4">
+        <v>0.79462999999999995</v>
+      </c>
+      <c r="AJ4">
+        <v>0.77559999999999996</v>
+      </c>
+      <c r="AK4">
+        <v>0.78430999999999995</v>
+      </c>
+      <c r="AL4">
+        <v>0.79339000000000004</v>
+      </c>
+      <c r="AM4">
+        <v>0.78364999999999996</v>
+      </c>
+      <c r="AN4">
+        <v>0.77649000000000001</v>
+      </c>
+      <c r="AO4">
+        <v>0.78322000000000003</v>
+      </c>
+      <c r="AP4">
+        <v>0.79166000000000003</v>
+      </c>
+      <c r="AQ4">
+        <v>0.78998000000000002</v>
+      </c>
+      <c r="AR4">
+        <v>0.79879999999999995</v>
+      </c>
+      <c r="AS4">
+        <v>0.80157</v>
+      </c>
+      <c r="AT4">
+        <v>0.79095000000000004</v>
+      </c>
+      <c r="AU4">
+        <v>0.75944</v>
+      </c>
+      <c r="AV4">
+        <v>0.78627000000000002</v>
+      </c>
+      <c r="AW4">
+        <v>0.78769999999999996</v>
+      </c>
+      <c r="AX4">
+        <v>0.76988999999999996</v>
+      </c>
+      <c r="AY4">
+        <v>0.77056999999999998</v>
+      </c>
+      <c r="AZ4">
+        <v>0.78461000000000003</v>
+      </c>
+      <c r="BA4">
+        <v>0.77941000000000005</v>
+      </c>
+      <c r="BB4">
+        <v>0.77914000000000005</v>
+      </c>
+      <c r="BC4">
+        <v>0.80374999999999996</v>
+      </c>
+      <c r="BD4">
+        <v>0.76614000000000004</v>
+      </c>
+      <c r="BE4">
+        <v>0.79505999999999999</v>
+      </c>
+      <c r="BF4">
+        <v>0.75375999999999999</v>
+      </c>
+      <c r="BG4">
+        <v>0.79522000000000004</v>
+      </c>
+      <c r="BH4">
+        <v>0.78546000000000005</v>
+      </c>
+      <c r="BI4">
+        <v>0.78463000000000005</v>
+      </c>
+      <c r="BJ4">
+        <v>0.7873</v>
+      </c>
+      <c r="BK4">
+        <v>0.79086999999999996</v>
+      </c>
+      <c r="BL4">
+        <v>0.78373000000000004</v>
+      </c>
+      <c r="BM4">
+        <v>0.77010999999999996</v>
+      </c>
+      <c r="BN4">
+        <v>0.75817000000000001</v>
+      </c>
+      <c r="BO4">
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="BP4">
+        <v>0.79315000000000002</v>
+      </c>
+      <c r="BQ4">
+        <v>0.77041000000000004</v>
+      </c>
+      <c r="BR4">
+        <v>0.76300999999999997</v>
+      </c>
+      <c r="BS4">
+        <v>0.79440999999999995</v>
+      </c>
+      <c r="BT4">
+        <v>0.76297999999999999</v>
+      </c>
+      <c r="BU4">
+        <v>0.78852</v>
+      </c>
+      <c r="BV4">
+        <v>0.74675000000000002</v>
+      </c>
+      <c r="BW4">
+        <v>0.79664999999999997</v>
+      </c>
+      <c r="BX4">
+        <v>0.78924000000000005</v>
+      </c>
+      <c r="BY4">
+        <v>0.78493999999999997</v>
+      </c>
+      <c r="BZ4">
+        <v>0.80601999999999996</v>
+      </c>
+      <c r="CA4">
+        <v>0.79549999999999998</v>
+      </c>
+      <c r="CB4">
+        <v>0.77878000000000003</v>
+      </c>
+      <c r="CC4">
+        <v>0.78610999999999998</v>
+      </c>
+      <c r="CD4">
+        <v>0.76731000000000005</v>
+      </c>
+      <c r="CE4">
+        <v>0.80435999999999996</v>
+      </c>
+      <c r="CF4">
+        <v>0.78591999999999995</v>
+      </c>
+      <c r="CG4">
+        <v>0.76336000000000004</v>
+      </c>
+      <c r="CH4">
+        <v>0.78993999999999998</v>
+      </c>
+      <c r="CI4">
+        <v>0.78142999999999996</v>
+      </c>
+      <c r="CJ4">
+        <v>0.77363999999999999</v>
+      </c>
+      <c r="CK4">
+        <v>0.79083999999999999</v>
+      </c>
+      <c r="CL4">
+        <v>0.78015999999999996</v>
+      </c>
+      <c r="CM4">
+        <v>0.78885000000000005</v>
+      </c>
+      <c r="CN4">
+        <v>0.79664999999999997</v>
+      </c>
+      <c r="CO4">
+        <v>0.80713999999999997</v>
+      </c>
+      <c r="CP4">
+        <v>0.79498000000000002</v>
+      </c>
+      <c r="CQ4">
+        <v>0.80057</v>
+      </c>
+      <c r="CR4">
+        <v>0.79574999999999996</v>
+      </c>
+      <c r="CS4">
+        <v>0.76441999999999999</v>
+      </c>
+      <c r="CT4">
+        <v>0.78547999999999996</v>
+      </c>
+      <c r="CU4">
+        <v>0.78774</v>
+      </c>
+      <c r="CV4">
+        <v>0.77636000000000005</v>
+      </c>
+      <c r="CW4">
+        <v>0.78358489999999992</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.79140999999999995</v>
-      </c>
-      <c r="B3">
-        <v>0.79774999999999996</v>
-      </c>
-      <c r="C3">
-        <v>0.79457999999999995</v>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.77986999999999995</v>
+      </c>
+      <c r="B5">
+        <v>0.77585999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.76437999999999995</v>
+      </c>
+      <c r="D5">
+        <v>0.76544999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.76590000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.75934999999999997</v>
+      </c>
+      <c r="G5">
+        <v>0.79932999999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.77798</v>
+      </c>
+      <c r="I5">
+        <v>0.78146000000000004</v>
+      </c>
+      <c r="J5">
+        <v>0.74761</v>
+      </c>
+      <c r="K5">
+        <v>0.76617000000000002</v>
+      </c>
+      <c r="L5">
+        <v>0.75751000000000002</v>
+      </c>
+      <c r="M5">
+        <v>0.76576999999999995</v>
+      </c>
+      <c r="N5">
+        <v>0.78464</v>
+      </c>
+      <c r="O5">
+        <v>0.75219000000000003</v>
+      </c>
+      <c r="P5">
+        <v>0.76859</v>
+      </c>
+      <c r="Q5">
+        <v>0.77708999999999995</v>
+      </c>
+      <c r="R5">
+        <v>0.76863000000000004</v>
+      </c>
+      <c r="S5">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="T5">
+        <v>0.76839000000000002</v>
+      </c>
+      <c r="U5">
+        <v>0.76795999999999998</v>
+      </c>
+      <c r="V5">
+        <v>0.77973000000000003</v>
+      </c>
+      <c r="W5">
+        <v>0.79301999999999995</v>
+      </c>
+      <c r="X5">
+        <v>0.76073000000000002</v>
+      </c>
+      <c r="Y5">
+        <v>0.75944</v>
+      </c>
+      <c r="Z5">
+        <v>0.79218</v>
+      </c>
+      <c r="AA5">
+        <v>0.77110000000000001</v>
+      </c>
+      <c r="AB5">
+        <v>0.78161999999999998</v>
+      </c>
+      <c r="AC5">
+        <v>0.78115999999999997</v>
+      </c>
+      <c r="AD5">
+        <v>0.77820999999999996</v>
+      </c>
+      <c r="AE5">
+        <v>0.76968999999999999</v>
+      </c>
+      <c r="AF5">
+        <v>0.77044000000000001</v>
+      </c>
+      <c r="AG5">
+        <v>0.75915999999999995</v>
+      </c>
+      <c r="AH5">
+        <v>0.76898999999999995</v>
+      </c>
+      <c r="AI5">
+        <v>0.75488999999999995</v>
+      </c>
+      <c r="AJ5">
+        <v>0.77681</v>
+      </c>
+      <c r="AK5">
+        <v>0.76722000000000001</v>
+      </c>
+      <c r="AL5">
+        <v>0.78813999999999995</v>
+      </c>
+      <c r="AM5">
+        <v>0.76822999999999997</v>
+      </c>
+      <c r="AN5">
+        <v>0.74190999999999996</v>
+      </c>
+      <c r="AO5">
+        <v>0.77437999999999996</v>
+      </c>
+      <c r="AP5">
+        <v>0.75946999999999998</v>
+      </c>
+      <c r="AQ5">
+        <v>0.76465000000000005</v>
+      </c>
+      <c r="AR5">
+        <v>0.77808999999999995</v>
+      </c>
+      <c r="AS5">
+        <v>0.76963000000000004</v>
+      </c>
+      <c r="AT5">
+        <v>0.79218999999999995</v>
+      </c>
+      <c r="AU5">
+        <v>0.78737000000000001</v>
+      </c>
+      <c r="AV5">
+        <v>0.79898000000000002</v>
+      </c>
+      <c r="AW5">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="AX5">
+        <v>0.78825000000000001</v>
+      </c>
+      <c r="AY5">
+        <v>0.75851999999999997</v>
+      </c>
+      <c r="AZ5">
+        <v>0.77915000000000001</v>
+      </c>
+      <c r="BA5">
+        <v>0.77383999999999997</v>
+      </c>
+      <c r="BB5">
+        <v>0.75600999999999996</v>
+      </c>
+      <c r="BC5">
+        <v>0.74948000000000004</v>
+      </c>
+      <c r="BD5">
+        <v>0.77771999999999997</v>
+      </c>
+      <c r="BE5">
+        <v>0.75741000000000003</v>
+      </c>
+      <c r="BF5">
+        <v>0.76739999999999997</v>
+      </c>
+      <c r="BG5">
+        <v>0.77954000000000001</v>
+      </c>
+      <c r="BH5">
+        <v>0.75822000000000001</v>
+      </c>
+      <c r="BI5">
+        <v>0.77</v>
+      </c>
+      <c r="BJ5">
+        <v>0.76254</v>
+      </c>
+      <c r="BK5">
+        <v>0.78422000000000003</v>
+      </c>
+      <c r="BL5">
+        <v>0.78369999999999995</v>
+      </c>
+      <c r="BM5">
+        <v>0.76785000000000003</v>
+      </c>
+      <c r="BN5">
+        <v>0.77325999999999995</v>
+      </c>
+      <c r="BO5">
+        <v>0.77324999999999999</v>
+      </c>
+      <c r="BP5">
+        <v>0.76663999999999999</v>
+      </c>
+      <c r="BQ5">
+        <v>0.79446000000000006</v>
+      </c>
+      <c r="BR5">
+        <v>0.79674</v>
+      </c>
+      <c r="BS5">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="BT5">
+        <v>0.78527999999999998</v>
+      </c>
+      <c r="BU5">
+        <v>0.74983999999999995</v>
+      </c>
+      <c r="BV5">
+        <v>0.76651999999999998</v>
+      </c>
+      <c r="BW5">
+        <v>0.78222000000000003</v>
+      </c>
+      <c r="BX5">
+        <v>0.77556999999999998</v>
+      </c>
+      <c r="BY5">
+        <v>0.78893000000000002</v>
+      </c>
+      <c r="BZ5">
+        <v>0.77531000000000005</v>
+      </c>
+      <c r="CA5">
+        <v>0.76244000000000001</v>
+      </c>
+      <c r="CB5">
+        <v>0.78017000000000003</v>
+      </c>
+      <c r="CC5">
+        <v>0.77927000000000002</v>
+      </c>
+      <c r="CD5">
+        <v>0.76624000000000003</v>
+      </c>
+      <c r="CE5">
+        <v>0.76998999999999995</v>
+      </c>
+      <c r="CF5">
+        <v>0.76676999999999995</v>
+      </c>
+      <c r="CG5">
+        <v>0.77120999999999995</v>
+      </c>
+      <c r="CH5">
+        <v>0.78066000000000002</v>
+      </c>
+      <c r="CI5">
+        <v>0.78008999999999995</v>
+      </c>
+      <c r="CJ5">
+        <v>0.77298</v>
+      </c>
+      <c r="CK5">
+        <v>0.77227000000000001</v>
+      </c>
+      <c r="CL5">
+        <v>0.75593999999999995</v>
+      </c>
+      <c r="CM5">
+        <v>0.76568999999999998</v>
+      </c>
+      <c r="CN5">
+        <v>0.76317999999999997</v>
+      </c>
+      <c r="CO5">
+        <v>0.78261000000000003</v>
+      </c>
+      <c r="CP5">
+        <v>0.75119999999999998</v>
+      </c>
+      <c r="CQ5">
+        <v>0.76988000000000001</v>
+      </c>
+      <c r="CR5">
+        <v>0.76107999999999998</v>
+      </c>
+      <c r="CS5">
+        <v>0.77761000000000002</v>
+      </c>
+      <c r="CT5">
+        <v>0.77714000000000005</v>
+      </c>
+      <c r="CU5">
+        <v>0.76512999999999998</v>
+      </c>
+      <c r="CV5">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="CW5">
+        <v>0.77158280000000024</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.75346999999999997</v>
-      </c>
-      <c r="B4">
-        <v>0.79605000000000004</v>
-      </c>
-      <c r="C4">
-        <v>0.77476</v>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.75888</v>
+      </c>
+      <c r="B6">
+        <v>0.77148000000000005</v>
+      </c>
+      <c r="C6">
+        <v>0.76707000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.75095999999999996</v>
+      </c>
+      <c r="E6">
+        <v>0.75422</v>
+      </c>
+      <c r="F6">
+        <v>0.77758000000000005</v>
+      </c>
+      <c r="G6">
+        <v>0.77722999999999998</v>
+      </c>
+      <c r="H6">
+        <v>0.75431000000000004</v>
+      </c>
+      <c r="I6">
+        <v>0.78122999999999998</v>
+      </c>
+      <c r="J6">
+        <v>0.76934000000000002</v>
+      </c>
+      <c r="K6">
+        <v>0.77127999999999997</v>
+      </c>
+      <c r="L6">
+        <v>0.74458999999999997</v>
+      </c>
+      <c r="M6">
+        <v>0.7359</v>
+      </c>
+      <c r="N6">
+        <v>0.75105999999999995</v>
+      </c>
+      <c r="O6">
+        <v>0.77217000000000002</v>
+      </c>
+      <c r="P6">
+        <v>0.76546000000000003</v>
+      </c>
+      <c r="Q6">
+        <v>0.75541999999999998</v>
+      </c>
+      <c r="R6">
+        <v>0.7722</v>
+      </c>
+      <c r="S6">
+        <v>0.76678999999999997</v>
+      </c>
+      <c r="T6">
+        <v>0.78971000000000002</v>
+      </c>
+      <c r="U6">
+        <v>0.77041000000000004</v>
+      </c>
+      <c r="V6">
+        <v>0.76832999999999996</v>
+      </c>
+      <c r="W6">
+        <v>0.77270000000000005</v>
+      </c>
+      <c r="X6">
+        <v>0.77690000000000003</v>
+      </c>
+      <c r="Y6">
+        <v>0.74824000000000002</v>
+      </c>
+      <c r="Z6">
+        <v>0.77186999999999995</v>
+      </c>
+      <c r="AA6">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="AB6">
+        <v>0.78798999999999997</v>
+      </c>
+      <c r="AC6">
+        <v>0.77849999999999997</v>
+      </c>
+      <c r="AD6">
+        <v>0.78366999999999998</v>
+      </c>
+      <c r="AE6">
+        <v>0.77231000000000005</v>
+      </c>
+      <c r="AF6">
+        <v>0.78388000000000002</v>
+      </c>
+      <c r="AG6">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="AH6">
+        <v>0.74541000000000002</v>
+      </c>
+      <c r="AI6">
+        <v>0.76266</v>
+      </c>
+      <c r="AJ6">
+        <v>0.74143000000000003</v>
+      </c>
+      <c r="AK6">
+        <v>0.77500999999999998</v>
+      </c>
+      <c r="AL6">
+        <v>0.77873000000000003</v>
+      </c>
+      <c r="AM6">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="AN6">
+        <v>0.74565999999999999</v>
+      </c>
+      <c r="AO6">
+        <v>0.76376999999999995</v>
+      </c>
+      <c r="AP6">
+        <v>0.76336999999999999</v>
+      </c>
+      <c r="AQ6">
+        <v>0.75339999999999996</v>
+      </c>
+      <c r="AR6">
+        <v>0.76902999999999999</v>
+      </c>
+      <c r="AS6">
+        <v>0.76275000000000004</v>
+      </c>
+      <c r="AT6">
+        <v>0.75244</v>
+      </c>
+      <c r="AU6">
+        <v>0.75878999999999996</v>
+      </c>
+      <c r="AV6">
+        <v>0.77322000000000002</v>
+      </c>
+      <c r="AW6">
+        <v>0.77836000000000005</v>
+      </c>
+      <c r="AX6">
+        <v>0.78015000000000001</v>
+      </c>
+      <c r="AY6">
+        <v>0.78751000000000004</v>
+      </c>
+      <c r="AZ6">
+        <v>0.78344000000000003</v>
+      </c>
+      <c r="BA6">
+        <v>0.78791999999999995</v>
+      </c>
+      <c r="BB6">
+        <v>0.75627999999999995</v>
+      </c>
+      <c r="BC6">
+        <v>0.76790999999999998</v>
+      </c>
+      <c r="BD6">
+        <v>0.78144999999999998</v>
+      </c>
+      <c r="BE6">
+        <v>0.75051000000000001</v>
+      </c>
+      <c r="BF6">
+        <v>0.77537999999999996</v>
+      </c>
+      <c r="BG6">
+        <v>0.76824999999999999</v>
+      </c>
+      <c r="BH6">
+        <v>0.78424000000000005</v>
+      </c>
+      <c r="BI6">
+        <v>0.76197999999999999</v>
+      </c>
+      <c r="BJ6">
+        <v>0.77644999999999997</v>
+      </c>
+      <c r="BK6">
+        <v>0.77071999999999996</v>
+      </c>
+      <c r="BL6">
+        <v>0.74261999999999995</v>
+      </c>
+      <c r="BM6">
+        <v>0.77449000000000001</v>
+      </c>
+      <c r="BN6">
+        <v>0.77112000000000003</v>
+      </c>
+      <c r="BO6">
+        <v>0.78864000000000001</v>
+      </c>
+      <c r="BP6">
+        <v>0.72831999999999997</v>
+      </c>
+      <c r="BQ6">
+        <v>0.77536000000000005</v>
+      </c>
+      <c r="BR6">
+        <v>0.76400999999999997</v>
+      </c>
+      <c r="BS6">
+        <v>0.75861000000000001</v>
+      </c>
+      <c r="BT6">
+        <v>0.79259999999999997</v>
+      </c>
+      <c r="BU6">
+        <v>0.75754999999999995</v>
+      </c>
+      <c r="BV6">
+        <v>0.75831000000000004</v>
+      </c>
+      <c r="BW6">
+        <v>0.79017999999999999</v>
+      </c>
+      <c r="BX6">
+        <v>0.76254999999999995</v>
+      </c>
+      <c r="BY6">
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="BZ6">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="CA6">
+        <v>0.76549999999999996</v>
+      </c>
+      <c r="CB6">
+        <v>0.77903999999999995</v>
+      </c>
+      <c r="CC6">
+        <v>0.76839000000000002</v>
+      </c>
+      <c r="CD6">
+        <v>0.77048000000000005</v>
+      </c>
+      <c r="CE6">
+        <v>0.75895999999999997</v>
+      </c>
+      <c r="CF6">
+        <v>0.74392999999999998</v>
+      </c>
+      <c r="CG6">
+        <v>0.77066000000000001</v>
+      </c>
+      <c r="CH6">
+        <v>0.76436000000000004</v>
+      </c>
+      <c r="CI6">
+        <v>0.77285000000000004</v>
+      </c>
+      <c r="CJ6">
+        <v>0.75092000000000003</v>
+      </c>
+      <c r="CK6">
+        <v>0.76851999999999998</v>
+      </c>
+      <c r="CL6">
+        <v>0.75653999999999999</v>
+      </c>
+      <c r="CM6">
+        <v>0.80020000000000002</v>
+      </c>
+      <c r="CN6">
+        <v>0.77148000000000005</v>
+      </c>
+      <c r="CO6">
+        <v>0.78132000000000001</v>
+      </c>
+      <c r="CP6">
+        <v>0.77188000000000001</v>
+      </c>
+      <c r="CQ6">
+        <v>0.75932999999999995</v>
+      </c>
+      <c r="CR6">
+        <v>0.78108</v>
+      </c>
+      <c r="CS6">
+        <v>0.74814999999999998</v>
+      </c>
+      <c r="CT6">
+        <v>0.76351999999999998</v>
+      </c>
+      <c r="CU6">
+        <v>0.7722</v>
+      </c>
+      <c r="CV6">
+        <v>0.76551999999999998</v>
+      </c>
+      <c r="CW6">
+        <v>0.76772089999999982</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.77893000000000001</v>
-      </c>
-      <c r="B5">
-        <v>0.76717999999999997</v>
-      </c>
-      <c r="C5">
-        <v>0.77305500000000005</v>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.73885000000000001</v>
+      </c>
+      <c r="B7">
+        <v>0.78166999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.76024999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.77627999999999997</v>
+      </c>
+      <c r="E7">
+        <v>0.77542999999999995</v>
+      </c>
+      <c r="F7">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="G7">
+        <v>0.76704000000000006</v>
+      </c>
+      <c r="H7">
+        <v>0.76783999999999997</v>
+      </c>
+      <c r="I7">
+        <v>0.77117000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.75283</v>
+      </c>
+      <c r="K7">
+        <v>0.75166999999999995</v>
+      </c>
+      <c r="L7">
+        <v>0.76053000000000004</v>
+      </c>
+      <c r="M7">
+        <v>0.74243999999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.77159</v>
+      </c>
+      <c r="O7">
+        <v>0.76637</v>
+      </c>
+      <c r="P7">
+        <v>0.76719999999999999</v>
+      </c>
+      <c r="Q7">
+        <v>0.76412000000000002</v>
+      </c>
+      <c r="R7">
+        <v>0.77768999999999999</v>
+      </c>
+      <c r="S7">
+        <v>0.75307999999999997</v>
+      </c>
+      <c r="T7">
+        <v>0.76400999999999997</v>
+      </c>
+      <c r="U7">
+        <v>0.75144999999999995</v>
+      </c>
+      <c r="V7">
+        <v>0.75414000000000003</v>
+      </c>
+      <c r="W7">
+        <v>0.77354999999999996</v>
+      </c>
+      <c r="X7">
+        <v>0.74875999999999998</v>
+      </c>
+      <c r="Y7">
+        <v>0.73726999999999998</v>
+      </c>
+      <c r="Z7">
+        <v>0.74963999999999997</v>
+      </c>
+      <c r="AA7">
+        <v>0.73587999999999998</v>
+      </c>
+      <c r="AB7">
+        <v>0.77844999999999998</v>
+      </c>
+      <c r="AC7">
+        <v>0.74746999999999997</v>
+      </c>
+      <c r="AD7">
+        <v>0.78741000000000005</v>
+      </c>
+      <c r="AE7">
+        <v>0.79169</v>
+      </c>
+      <c r="AF7">
+        <v>0.77173999999999998</v>
+      </c>
+      <c r="AG7">
+        <v>0.76044</v>
+      </c>
+      <c r="AH7">
+        <v>0.78305999999999998</v>
+      </c>
+      <c r="AI7">
+        <v>0.75287999999999999</v>
+      </c>
+      <c r="AJ7">
+        <v>0.76429000000000002</v>
+      </c>
+      <c r="AK7">
+        <v>0.75602999999999998</v>
+      </c>
+      <c r="AL7">
+        <v>0.77266999999999997</v>
+      </c>
+      <c r="AM7">
+        <v>0.77178999999999998</v>
+      </c>
+      <c r="AN7">
+        <v>0.73641999999999996</v>
+      </c>
+      <c r="AO7">
+        <v>0.74102000000000001</v>
+      </c>
+      <c r="AP7">
+        <v>0.76190999999999998</v>
+      </c>
+      <c r="AQ7">
+        <v>0.76195999999999997</v>
+      </c>
+      <c r="AR7">
+        <v>0.74007999999999996</v>
+      </c>
+      <c r="AS7">
+        <v>0.79166000000000003</v>
+      </c>
+      <c r="AT7">
+        <v>0.74368000000000001</v>
+      </c>
+      <c r="AU7">
+        <v>0.77447999999999995</v>
+      </c>
+      <c r="AV7">
+        <v>0.76776</v>
+      </c>
+      <c r="AW7">
+        <v>0.75587000000000004</v>
+      </c>
+      <c r="AX7">
+        <v>0.76856999999999998</v>
+      </c>
+      <c r="AY7">
+        <v>0.75627999999999995</v>
+      </c>
+      <c r="AZ7">
+        <v>0.77515000000000001</v>
+      </c>
+      <c r="BA7">
+        <v>0.75326000000000004</v>
+      </c>
+      <c r="BB7">
+        <v>0.77142999999999995</v>
+      </c>
+      <c r="BC7">
+        <v>0.76327</v>
+      </c>
+      <c r="BD7">
+        <v>0.75207000000000002</v>
+      </c>
+      <c r="BE7">
+        <v>0.76361999999999997</v>
+      </c>
+      <c r="BF7">
+        <v>0.75500999999999996</v>
+      </c>
+      <c r="BG7">
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="BH7">
+        <v>0.76637999999999995</v>
+      </c>
+      <c r="BI7">
+        <v>0.77868000000000004</v>
+      </c>
+      <c r="BJ7">
+        <v>0.76817000000000002</v>
+      </c>
+      <c r="BK7">
+        <v>0.77578999999999998</v>
+      </c>
+      <c r="BL7">
+        <v>0.77334999999999998</v>
+      </c>
+      <c r="BM7">
+        <v>0.76229000000000002</v>
+      </c>
+      <c r="BN7">
+        <v>0.75273999999999996</v>
+      </c>
+      <c r="BO7">
+        <v>0.7601</v>
+      </c>
+      <c r="BP7">
+        <v>0.72480999999999995</v>
+      </c>
+      <c r="BQ7">
+        <v>0.76149</v>
+      </c>
+      <c r="BR7">
+        <v>0.78998999999999997</v>
+      </c>
+      <c r="BS7">
+        <v>0.77585000000000004</v>
+      </c>
+      <c r="BT7">
+        <v>0.77153000000000005</v>
+      </c>
+      <c r="BU7">
+        <v>0.74263000000000001</v>
+      </c>
+      <c r="BV7">
+        <v>0.77407000000000004</v>
+      </c>
+      <c r="BW7">
+        <v>0.75731000000000004</v>
+      </c>
+      <c r="BX7">
+        <v>0.76365000000000005</v>
+      </c>
+      <c r="BY7">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="BZ7">
+        <v>0.77900999999999998</v>
+      </c>
+      <c r="CA7">
+        <v>0.74677000000000004</v>
+      </c>
+      <c r="CB7">
+        <v>0.78064999999999996</v>
+      </c>
+      <c r="CC7">
+        <v>0.73507999999999996</v>
+      </c>
+      <c r="CD7">
+        <v>0.76578000000000002</v>
+      </c>
+      <c r="CE7">
+        <v>0.76283999999999996</v>
+      </c>
+      <c r="CF7">
+        <v>0.75163999999999997</v>
+      </c>
+      <c r="CG7">
+        <v>0.78505000000000003</v>
+      </c>
+      <c r="CH7">
+        <v>0.76005</v>
+      </c>
+      <c r="CI7">
+        <v>0.78329000000000004</v>
+      </c>
+      <c r="CJ7">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="CK7">
+        <v>0.76427</v>
+      </c>
+      <c r="CL7">
+        <v>0.76790000000000003</v>
+      </c>
+      <c r="CM7">
+        <v>0.76071999999999995</v>
+      </c>
+      <c r="CN7">
+        <v>0.76737999999999995</v>
+      </c>
+      <c r="CO7">
+        <v>0.75514000000000003</v>
+      </c>
+      <c r="CP7">
+        <v>0.77159999999999995</v>
+      </c>
+      <c r="CQ7">
+        <v>0.75349999999999995</v>
+      </c>
+      <c r="CR7">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="CS7">
+        <v>0.77227999999999997</v>
+      </c>
+      <c r="CT7">
+        <v>0.74075000000000002</v>
+      </c>
+      <c r="CU7">
+        <v>0.76532999999999995</v>
+      </c>
+      <c r="CV7">
+        <v>0.75129999999999997</v>
+      </c>
+      <c r="CW7">
+        <v>0.76234030000000008</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.77671000000000001</v>
-      </c>
-      <c r="B6">
-        <v>0.76346000000000003</v>
-      </c>
-      <c r="C6">
-        <v>0.77008500000000002</v>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.76090999999999998</v>
+      </c>
+      <c r="B8">
+        <v>0.73348000000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.76334000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.75336999999999998</v>
+      </c>
+      <c r="E8">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.74485000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.74129</v>
+      </c>
+      <c r="H8">
+        <v>0.75607999999999997</v>
+      </c>
+      <c r="I8">
+        <v>0.75373000000000001</v>
+      </c>
+      <c r="J8">
+        <v>0.76132</v>
+      </c>
+      <c r="K8">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="L8">
+        <v>0.75141999999999998</v>
+      </c>
+      <c r="M8">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="N8">
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="O8">
+        <v>0.75295999999999996</v>
+      </c>
+      <c r="P8">
+        <v>0.75682000000000005</v>
+      </c>
+      <c r="Q8">
+        <v>0.75763000000000003</v>
+      </c>
+      <c r="R8">
+        <v>0.73309000000000002</v>
+      </c>
+      <c r="S8">
+        <v>0.75136000000000003</v>
+      </c>
+      <c r="T8">
+        <v>0.74682999999999999</v>
+      </c>
+      <c r="U8">
+        <v>0.75358999999999998</v>
+      </c>
+      <c r="V8">
+        <v>0.78757999999999995</v>
+      </c>
+      <c r="W8">
+        <v>0.78715000000000002</v>
+      </c>
+      <c r="X8">
+        <v>0.74836000000000003</v>
+      </c>
+      <c r="Y8">
+        <v>0.77292000000000005</v>
+      </c>
+      <c r="Z8">
+        <v>0.74704999999999999</v>
+      </c>
+      <c r="AA8">
+        <v>0.73480000000000001</v>
+      </c>
+      <c r="AB8">
+        <v>0.74772000000000005</v>
+      </c>
+      <c r="AC8">
+        <v>0.76154999999999995</v>
+      </c>
+      <c r="AD8">
+        <v>0.74411000000000005</v>
+      </c>
+      <c r="AE8">
+        <v>0.78395000000000004</v>
+      </c>
+      <c r="AF8">
+        <v>0.75002000000000002</v>
+      </c>
+      <c r="AG8">
+        <v>0.72338000000000002</v>
+      </c>
+      <c r="AH8">
+        <v>0.75482000000000005</v>
+      </c>
+      <c r="AI8">
+        <v>0.76083000000000001</v>
+      </c>
+      <c r="AJ8">
+        <v>0.74792000000000003</v>
+      </c>
+      <c r="AK8">
+        <v>0.76361999999999997</v>
+      </c>
+      <c r="AL8">
+        <v>0.74565000000000003</v>
+      </c>
+      <c r="AM8">
+        <v>0.77415</v>
+      </c>
+      <c r="AN8">
+        <v>0.73163999999999996</v>
+      </c>
+      <c r="AO8">
+        <v>0.75707000000000002</v>
+      </c>
+      <c r="AP8">
+        <v>0.77181999999999995</v>
+      </c>
+      <c r="AQ8">
+        <v>0.75092999999999999</v>
+      </c>
+      <c r="AR8">
+        <v>0.75853000000000004</v>
+      </c>
+      <c r="AS8">
+        <v>0.77254999999999996</v>
+      </c>
+      <c r="AT8">
+        <v>0.76970000000000005</v>
+      </c>
+      <c r="AU8">
+        <v>0.78646000000000005</v>
+      </c>
+      <c r="AV8">
+        <v>0.75033000000000005</v>
+      </c>
+      <c r="AW8">
+        <v>0.75080999999999998</v>
+      </c>
+      <c r="AX8">
+        <v>0.77071000000000001</v>
+      </c>
+      <c r="AY8">
+        <v>0.76151999999999997</v>
+      </c>
+      <c r="AZ8">
+        <v>0.74836000000000003</v>
+      </c>
+      <c r="BA8">
+        <v>0.76541999999999999</v>
+      </c>
+      <c r="BB8">
+        <v>0.75529000000000002</v>
+      </c>
+      <c r="BC8">
+        <v>0.73494999999999999</v>
+      </c>
+      <c r="BD8">
+        <v>0.76619999999999999</v>
+      </c>
+      <c r="BE8">
+        <v>0.74807000000000001</v>
+      </c>
+      <c r="BF8">
+        <v>0.76926000000000005</v>
+      </c>
+      <c r="BG8">
+        <v>0.75268000000000002</v>
+      </c>
+      <c r="BH8">
+        <v>0.75024000000000002</v>
+      </c>
+      <c r="BI8">
+        <v>0.73924999999999996</v>
+      </c>
+      <c r="BJ8">
+        <v>0.74743000000000004</v>
+      </c>
+      <c r="BK8">
+        <v>0.74473</v>
+      </c>
+      <c r="BL8">
+        <v>0.75085999999999997</v>
+      </c>
+      <c r="BM8">
+        <v>0.75229000000000001</v>
+      </c>
+      <c r="BN8">
+        <v>0.75673999999999997</v>
+      </c>
+      <c r="BO8">
+        <v>0.75465000000000004</v>
+      </c>
+      <c r="BP8">
+        <v>0.76185999999999998</v>
+      </c>
+      <c r="BQ8">
+        <v>0.77588999999999997</v>
+      </c>
+      <c r="BR8">
+        <v>0.76410999999999996</v>
+      </c>
+      <c r="BS8">
+        <v>0.75205</v>
+      </c>
+      <c r="BT8">
+        <v>0.75066999999999995</v>
+      </c>
+      <c r="BU8">
+        <v>0.76619000000000004</v>
+      </c>
+      <c r="BV8">
+        <v>0.74794000000000005</v>
+      </c>
+      <c r="BW8">
+        <v>0.76446000000000003</v>
+      </c>
+      <c r="BX8">
+        <v>0.75336999999999998</v>
+      </c>
+      <c r="BY8">
+        <v>0.76636000000000004</v>
+      </c>
+      <c r="BZ8">
+        <v>0.78412999999999999</v>
+      </c>
+      <c r="CA8">
+        <v>0.74826999999999999</v>
+      </c>
+      <c r="CB8">
+        <v>0.73209999999999997</v>
+      </c>
+      <c r="CC8">
+        <v>0.75346000000000002</v>
+      </c>
+      <c r="CD8">
+        <v>0.75734999999999997</v>
+      </c>
+      <c r="CE8">
+        <v>0.75882000000000005</v>
+      </c>
+      <c r="CF8">
+        <v>0.75334000000000001</v>
+      </c>
+      <c r="CG8">
+        <v>0.74653999999999998</v>
+      </c>
+      <c r="CH8">
+        <v>0.76305000000000001</v>
+      </c>
+      <c r="CI8">
+        <v>0.75175000000000003</v>
+      </c>
+      <c r="CJ8">
+        <v>0.76536999999999999</v>
+      </c>
+      <c r="CK8">
+        <v>0.76454999999999995</v>
+      </c>
+      <c r="CL8">
+        <v>0.75133000000000005</v>
+      </c>
+      <c r="CM8">
+        <v>0.76298999999999995</v>
+      </c>
+      <c r="CN8">
+        <v>0.76039999999999996</v>
+      </c>
+      <c r="CO8">
+        <v>0.78242999999999996</v>
+      </c>
+      <c r="CP8">
+        <v>0.77524999999999999</v>
+      </c>
+      <c r="CQ8">
+        <v>0.75597999999999999</v>
+      </c>
+      <c r="CR8">
+        <v>0.76378999999999997</v>
+      </c>
+      <c r="CS8">
+        <v>0.75582000000000005</v>
+      </c>
+      <c r="CT8">
+        <v>0.749</v>
+      </c>
+      <c r="CU8">
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="CV8">
+        <v>0.77102000000000004</v>
+      </c>
+      <c r="CW8">
+        <v>0.75706679999999982</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.75570999999999999</v>
-      </c>
-      <c r="B7">
-        <v>0.76305999999999996</v>
-      </c>
-      <c r="C7">
-        <v>0.75938499999999998</v>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.77764</v>
+      </c>
+      <c r="B9">
+        <v>0.76932</v>
+      </c>
+      <c r="C9">
+        <v>0.74624999999999997</v>
+      </c>
+      <c r="D9">
+        <v>0.75851999999999997</v>
+      </c>
+      <c r="E9">
+        <v>0.76080000000000003</v>
+      </c>
+      <c r="F9">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.75432999999999995</v>
+      </c>
+      <c r="H9">
+        <v>0.74485999999999997</v>
+      </c>
+      <c r="I9">
+        <v>0.76673000000000002</v>
+      </c>
+      <c r="J9">
+        <v>0.74309000000000003</v>
+      </c>
+      <c r="K9">
+        <v>0.74594000000000005</v>
+      </c>
+      <c r="L9">
+        <v>0.74941000000000002</v>
+      </c>
+      <c r="M9">
+        <v>0.75743000000000005</v>
+      </c>
+      <c r="N9">
+        <v>0.74722</v>
+      </c>
+      <c r="O9">
+        <v>0.75980999999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.74063000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.76346999999999998</v>
+      </c>
+      <c r="R9">
+        <v>0.75422</v>
+      </c>
+      <c r="S9">
+        <v>0.74756</v>
+      </c>
+      <c r="T9">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="U9">
+        <v>0.75399000000000005</v>
+      </c>
+      <c r="V9">
+        <v>0.76436000000000004</v>
+      </c>
+      <c r="W9">
+        <v>0.76115999999999995</v>
+      </c>
+      <c r="X9">
+        <v>0.76137999999999995</v>
+      </c>
+      <c r="Y9">
+        <v>0.77702000000000004</v>
+      </c>
+      <c r="Z9">
+        <v>0.73682999999999998</v>
+      </c>
+      <c r="AA9">
+        <v>0.77544000000000002</v>
+      </c>
+      <c r="AB9">
+        <v>0.77192000000000005</v>
+      </c>
+      <c r="AC9">
+        <v>0.75577000000000005</v>
+      </c>
+      <c r="AD9">
+        <v>0.76337999999999995</v>
+      </c>
+      <c r="AE9">
+        <v>0.74822999999999995</v>
+      </c>
+      <c r="AF9">
+        <v>0.7571</v>
+      </c>
+      <c r="AG9">
+        <v>0.77171000000000001</v>
+      </c>
+      <c r="AH9">
+        <v>0.76219000000000003</v>
+      </c>
+      <c r="AI9">
+        <v>0.77592000000000005</v>
+      </c>
+      <c r="AJ9">
+        <v>0.75663999999999998</v>
+      </c>
+      <c r="AK9">
+        <v>0.74265999999999999</v>
+      </c>
+      <c r="AL9">
+        <v>0.74431000000000003</v>
+      </c>
+      <c r="AM9">
+        <v>0.75612000000000001</v>
+      </c>
+      <c r="AN9">
+        <v>0.74944</v>
+      </c>
+      <c r="AO9">
+        <v>0.77381</v>
+      </c>
+      <c r="AP9">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="AQ9">
+        <v>0.77124000000000004</v>
+      </c>
+      <c r="AR9">
+        <v>0.75227999999999995</v>
+      </c>
+      <c r="AS9">
+        <v>0.76515999999999995</v>
+      </c>
+      <c r="AT9">
+        <v>0.74829000000000001</v>
+      </c>
+      <c r="AU9">
+        <v>0.78071999999999997</v>
+      </c>
+      <c r="AV9">
+        <v>0.77898999999999996</v>
+      </c>
+      <c r="AW9">
+        <v>0.75646000000000002</v>
+      </c>
+      <c r="AX9">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="AY9">
+        <v>0.73206000000000004</v>
+      </c>
+      <c r="AZ9">
+        <v>0.73243000000000003</v>
+      </c>
+      <c r="BA9">
+        <v>0.74345000000000006</v>
+      </c>
+      <c r="BB9">
+        <v>0.75677000000000005</v>
+      </c>
+      <c r="BC9">
+        <v>0.77732000000000001</v>
+      </c>
+      <c r="BD9">
+        <v>0.77049999999999996</v>
+      </c>
+      <c r="BE9">
+        <v>0.76034000000000002</v>
+      </c>
+      <c r="BF9">
+        <v>0.78015999999999996</v>
+      </c>
+      <c r="BG9">
+        <v>0.76139000000000001</v>
+      </c>
+      <c r="BH9">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="BI9">
+        <v>0.76609000000000005</v>
+      </c>
+      <c r="BJ9">
+        <v>0.77370000000000005</v>
+      </c>
+      <c r="BK9">
+        <v>0.78595000000000004</v>
+      </c>
+      <c r="BL9">
+        <v>0.76226000000000005</v>
+      </c>
+      <c r="BM9">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="BN9">
+        <v>0.75736999999999999</v>
+      </c>
+      <c r="BO9">
+        <v>0.73640000000000005</v>
+      </c>
+      <c r="BP9">
+        <v>0.74811000000000005</v>
+      </c>
+      <c r="BQ9">
+        <v>0.76295000000000002</v>
+      </c>
+      <c r="BR9">
+        <v>0.75558999999999998</v>
+      </c>
+      <c r="BS9">
+        <v>0.76295000000000002</v>
+      </c>
+      <c r="BT9">
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="BU9">
+        <v>0.76593999999999995</v>
+      </c>
+      <c r="BV9">
+        <v>0.76404000000000005</v>
+      </c>
+      <c r="BW9">
+        <v>0.74958999999999998</v>
+      </c>
+      <c r="BX9">
+        <v>0.75778999999999996</v>
+      </c>
+      <c r="BY9">
+        <v>0.73768</v>
+      </c>
+      <c r="BZ9">
+        <v>0.75978999999999997</v>
+      </c>
+      <c r="CA9">
+        <v>0.75817999999999997</v>
+      </c>
+      <c r="CB9">
+        <v>0.75444999999999995</v>
+      </c>
+      <c r="CC9">
+        <v>0.74434</v>
+      </c>
+      <c r="CD9">
+        <v>0.75087999999999999</v>
+      </c>
+      <c r="CE9">
+        <v>0.76422999999999996</v>
+      </c>
+      <c r="CF9">
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="CG9">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="CH9">
+        <v>0.74633000000000005</v>
+      </c>
+      <c r="CI9">
+        <v>0.74738000000000004</v>
+      </c>
+      <c r="CJ9">
+        <v>0.74768000000000001</v>
+      </c>
+      <c r="CK9">
+        <v>0.74580999999999997</v>
+      </c>
+      <c r="CL9">
+        <v>0.73801000000000005</v>
+      </c>
+      <c r="CM9">
+        <v>0.75117</v>
+      </c>
+      <c r="CN9">
+        <v>0.76851999999999998</v>
+      </c>
+      <c r="CO9">
+        <v>0.76158000000000003</v>
+      </c>
+      <c r="CP9">
+        <v>0.73904999999999998</v>
+      </c>
+      <c r="CQ9">
+        <v>0.74251</v>
+      </c>
+      <c r="CR9">
+        <v>0.75710999999999995</v>
+      </c>
+      <c r="CS9">
+        <v>0.75266</v>
+      </c>
+      <c r="CT9">
+        <v>0.76471</v>
+      </c>
+      <c r="CU9">
+        <v>0.74263999999999997</v>
+      </c>
+      <c r="CV9">
+        <v>0.75275000000000003</v>
+      </c>
+      <c r="CW9">
+        <v>0.75678130000000021</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.74290999999999996</v>
-      </c>
-      <c r="B8">
-        <v>0.75080999999999998</v>
-      </c>
-      <c r="C8">
-        <v>0.74685999999999997</v>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.74833000000000005</v>
+      </c>
+      <c r="B10">
+        <v>0.76543000000000005</v>
+      </c>
+      <c r="C10">
+        <v>0.73938000000000004</v>
+      </c>
+      <c r="D10">
+        <v>0.74660000000000004</v>
+      </c>
+      <c r="E10">
+        <v>0.73846999999999996</v>
+      </c>
+      <c r="F10">
+        <v>0.77064999999999995</v>
+      </c>
+      <c r="G10">
+        <v>0.75236000000000003</v>
+      </c>
+      <c r="H10">
+        <v>0.73214999999999997</v>
+      </c>
+      <c r="I10">
+        <v>0.75844</v>
+      </c>
+      <c r="J10">
+        <v>0.76093999999999995</v>
+      </c>
+      <c r="K10">
+        <v>0.75866999999999996</v>
+      </c>
+      <c r="L10">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="M10">
+        <v>0.75558000000000003</v>
+      </c>
+      <c r="N10">
+        <v>0.73765999999999998</v>
+      </c>
+      <c r="O10">
+        <v>0.76012999999999997</v>
+      </c>
+      <c r="P10">
+        <v>0.76624999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>0.75053000000000003</v>
+      </c>
+      <c r="R10">
+        <v>0.75719000000000003</v>
+      </c>
+      <c r="S10">
+        <v>0.74595</v>
+      </c>
+      <c r="T10">
+        <v>0.74383999999999995</v>
+      </c>
+      <c r="U10">
+        <v>0.75978000000000001</v>
+      </c>
+      <c r="V10">
+        <v>0.72524</v>
+      </c>
+      <c r="W10">
+        <v>0.73046</v>
+      </c>
+      <c r="X10">
+        <v>0.74146000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>0.73907</v>
+      </c>
+      <c r="Z10">
+        <v>0.74980000000000002</v>
+      </c>
+      <c r="AA10">
+        <v>0.75258000000000003</v>
+      </c>
+      <c r="AB10">
+        <v>0.76231000000000004</v>
+      </c>
+      <c r="AC10">
+        <v>0.76626000000000005</v>
+      </c>
+      <c r="AD10">
+        <v>0.74021999999999999</v>
+      </c>
+      <c r="AE10">
+        <v>0.73868</v>
+      </c>
+      <c r="AF10">
+        <v>0.75356000000000001</v>
+      </c>
+      <c r="AG10">
+        <v>0.75422</v>
+      </c>
+      <c r="AH10">
+        <v>0.75814000000000004</v>
+      </c>
+      <c r="AI10">
+        <v>0.76190999999999998</v>
+      </c>
+      <c r="AJ10">
+        <v>0.76763000000000003</v>
+      </c>
+      <c r="AK10">
+        <v>0.72667000000000004</v>
+      </c>
+      <c r="AL10">
+        <v>0.74473999999999996</v>
+      </c>
+      <c r="AM10">
+        <v>0.73519999999999996</v>
+      </c>
+      <c r="AN10">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="AO10">
+        <v>0.76092000000000004</v>
+      </c>
+      <c r="AP10">
+        <v>0.72911999999999999</v>
+      </c>
+      <c r="AQ10">
+        <v>0.75585999999999998</v>
+      </c>
+      <c r="AR10">
+        <v>0.73890999999999996</v>
+      </c>
+      <c r="AS10">
+        <v>0.74494000000000005</v>
+      </c>
+      <c r="AT10">
+        <v>0.73153000000000001</v>
+      </c>
+      <c r="AU10">
+        <v>0.76348000000000005</v>
+      </c>
+      <c r="AV10">
+        <v>0.73633000000000004</v>
+      </c>
+      <c r="AW10">
+        <v>0.75268999999999997</v>
+      </c>
+      <c r="AX10">
+        <v>0.76110999999999995</v>
+      </c>
+      <c r="AY10">
+        <v>0.72819999999999996</v>
+      </c>
+      <c r="AZ10">
+        <v>0.75470000000000004</v>
+      </c>
+      <c r="BA10">
+        <v>0.75541000000000003</v>
+      </c>
+      <c r="BB10">
+        <v>0.77685999999999999</v>
+      </c>
+      <c r="BC10">
+        <v>0.75846999999999998</v>
+      </c>
+      <c r="BD10">
+        <v>0.75570000000000004</v>
+      </c>
+      <c r="BE10">
+        <v>0.75536000000000003</v>
+      </c>
+      <c r="BF10">
+        <v>0.75119000000000002</v>
+      </c>
+      <c r="BG10">
+        <v>0.73756999999999995</v>
+      </c>
+      <c r="BH10">
+        <v>0.76039999999999996</v>
+      </c>
+      <c r="BI10">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="BJ10">
+        <v>0.73587999999999998</v>
+      </c>
+      <c r="BK10">
+        <v>0.76592000000000005</v>
+      </c>
+      <c r="BL10">
+        <v>0.72614999999999996</v>
+      </c>
+      <c r="BM10">
+        <v>0.74614000000000003</v>
+      </c>
+      <c r="BN10">
+        <v>0.78966000000000003</v>
+      </c>
+      <c r="BO10">
+        <v>0.73387999999999998</v>
+      </c>
+      <c r="BP10">
+        <v>0.75341999999999998</v>
+      </c>
+      <c r="BQ10">
+        <v>0.77076999999999996</v>
+      </c>
+      <c r="BR10">
+        <v>0.74790999999999996</v>
+      </c>
+      <c r="BS10">
+        <v>0.76009000000000004</v>
+      </c>
+      <c r="BT10">
+        <v>0.73268</v>
+      </c>
+      <c r="BU10">
+        <v>0.74799000000000004</v>
+      </c>
+      <c r="BV10">
+        <v>0.75275999999999998</v>
+      </c>
+      <c r="BW10">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="BX10">
+        <v>0.76453000000000004</v>
+      </c>
+      <c r="BY10">
+        <v>0.74897000000000002</v>
+      </c>
+      <c r="BZ10">
+        <v>0.745</v>
+      </c>
+      <c r="CA10">
+        <v>0.73373999999999995</v>
+      </c>
+      <c r="CB10">
+        <v>0.74863999999999997</v>
+      </c>
+      <c r="CC10">
+        <v>0.76214999999999999</v>
+      </c>
+      <c r="CD10">
+        <v>0.77193000000000001</v>
+      </c>
+      <c r="CE10">
+        <v>0.74583999999999995</v>
+      </c>
+      <c r="CF10">
+        <v>0.72387999999999997</v>
+      </c>
+      <c r="CG10">
+        <v>0.77271000000000001</v>
+      </c>
+      <c r="CH10">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="CI10">
+        <v>0.72016999999999998</v>
+      </c>
+      <c r="CJ10">
+        <v>0.75131999999999999</v>
+      </c>
+      <c r="CK10">
+        <v>0.7661</v>
+      </c>
+      <c r="CL10">
+        <v>0.75643000000000005</v>
+      </c>
+      <c r="CM10">
+        <v>0.77485999999999999</v>
+      </c>
+      <c r="CN10">
+        <v>0.73965000000000003</v>
+      </c>
+      <c r="CO10">
+        <v>0.77710000000000001</v>
+      </c>
+      <c r="CP10">
+        <v>0.74134999999999995</v>
+      </c>
+      <c r="CQ10">
+        <v>0.77224000000000004</v>
+      </c>
+      <c r="CR10">
+        <v>0.74306000000000005</v>
+      </c>
+      <c r="CS10">
+        <v>0.75158999999999998</v>
+      </c>
+      <c r="CT10">
+        <v>0.74926000000000004</v>
+      </c>
+      <c r="CU10">
+        <v>0.73787000000000003</v>
+      </c>
+      <c r="CV10">
+        <v>0.75953000000000004</v>
+      </c>
+      <c r="CW10">
+        <v>0.75063799999999992</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.75053000000000003</v>
-      </c>
-      <c r="B9">
-        <v>0.76834999999999998</v>
-      </c>
-      <c r="C9">
-        <v>0.75944</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.76163999999999998</v>
-      </c>
-      <c r="B10">
-        <v>0.74528000000000005</v>
-      </c>
-      <c r="C10">
-        <v>0.75346000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.77934999999999999</v>
+        <v>0.75592999999999999</v>
       </c>
       <c r="B11">
-        <v>0.75092999999999999</v>
+        <v>0.75385000000000002</v>
       </c>
       <c r="C11">
-        <v>0.76513999999999993</v>
+        <v>0.73607999999999996</v>
+      </c>
+      <c r="D11">
+        <v>0.75331999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.73655999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.74253999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.76619999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.74804000000000004</v>
+      </c>
+      <c r="I11">
+        <v>0.74922</v>
+      </c>
+      <c r="J11">
+        <v>0.73112999999999995</v>
+      </c>
+      <c r="K11">
+        <v>0.746</v>
+      </c>
+      <c r="L11">
+        <v>0.73867000000000005</v>
+      </c>
+      <c r="M11">
+        <v>0.75363000000000002</v>
+      </c>
+      <c r="N11">
+        <v>0.74100999999999995</v>
+      </c>
+      <c r="O11">
+        <v>0.75951999999999997</v>
+      </c>
+      <c r="P11">
+        <v>0.75551000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>0.74817</v>
+      </c>
+      <c r="R11">
+        <v>0.75146999999999997</v>
+      </c>
+      <c r="S11">
+        <v>0.73584000000000005</v>
+      </c>
+      <c r="T11">
+        <v>0.74102999999999997</v>
+      </c>
+      <c r="U11">
+        <v>0.75670999999999999</v>
+      </c>
+      <c r="V11">
+        <v>0.76319000000000004</v>
+      </c>
+      <c r="W11">
+        <v>0.72950000000000004</v>
+      </c>
+      <c r="X11">
+        <v>0.73595999999999995</v>
+      </c>
+      <c r="Y11">
+        <v>0.74470000000000003</v>
+      </c>
+      <c r="Z11">
+        <v>0.73143999999999998</v>
+      </c>
+      <c r="AA11">
+        <v>0.73914000000000002</v>
+      </c>
+      <c r="AB11">
+        <v>0.74211000000000005</v>
+      </c>
+      <c r="AC11">
+        <v>0.76431000000000004</v>
+      </c>
+      <c r="AD11">
+        <v>0.74722</v>
+      </c>
+      <c r="AE11">
+        <v>0.74721000000000004</v>
+      </c>
+      <c r="AF11">
+        <v>0.76192000000000004</v>
+      </c>
+      <c r="AG11">
+        <v>0.73985999999999996</v>
+      </c>
+      <c r="AH11">
+        <v>0.74938000000000005</v>
+      </c>
+      <c r="AI11">
+        <v>0.73848999999999998</v>
+      </c>
+      <c r="AJ11">
+        <v>0.72184000000000004</v>
+      </c>
+      <c r="AK11">
+        <v>0.74665000000000004</v>
+      </c>
+      <c r="AL11">
+        <v>0.74500999999999995</v>
+      </c>
+      <c r="AM11">
+        <v>0.75549999999999995</v>
+      </c>
+      <c r="AN11">
+        <v>0.74116000000000004</v>
+      </c>
+      <c r="AO11">
+        <v>0.73538000000000003</v>
+      </c>
+      <c r="AP11">
+        <v>0.74385999999999997</v>
+      </c>
+      <c r="AQ11">
+        <v>0.73845000000000005</v>
+      </c>
+      <c r="AR11">
+        <v>0.75819000000000003</v>
+      </c>
+      <c r="AS11">
+        <v>0.73065999999999998</v>
+      </c>
+      <c r="AT11">
+        <v>0.75031000000000003</v>
+      </c>
+      <c r="AU11">
+        <v>0.76924999999999999</v>
+      </c>
+      <c r="AV11">
+        <v>0.7843</v>
+      </c>
+      <c r="AW11">
+        <v>0.76771</v>
+      </c>
+      <c r="AX11">
+        <v>0.74182000000000003</v>
+      </c>
+      <c r="AY11">
+        <v>0.74411000000000005</v>
+      </c>
+      <c r="AZ11">
+        <v>0.77612000000000003</v>
+      </c>
+      <c r="BA11">
+        <v>0.73368</v>
+      </c>
+      <c r="BB11">
+        <v>0.76029999999999998</v>
+      </c>
+      <c r="BC11">
+        <v>0.74900999999999995</v>
+      </c>
+      <c r="BD11">
+        <v>0.73985000000000001</v>
+      </c>
+      <c r="BE11">
+        <v>0.75222</v>
+      </c>
+      <c r="BF11">
+        <v>0.74897999999999998</v>
+      </c>
+      <c r="BG11">
+        <v>0.74512</v>
+      </c>
+      <c r="BH11">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="BI11">
+        <v>0.74297999999999997</v>
+      </c>
+      <c r="BJ11">
+        <v>0.75017999999999996</v>
+      </c>
+      <c r="BK11">
+        <v>0.74397000000000002</v>
+      </c>
+      <c r="BL11">
+        <v>0.76104000000000005</v>
+      </c>
+      <c r="BM11">
+        <v>0.75846999999999998</v>
+      </c>
+      <c r="BN11">
+        <v>0.74253000000000002</v>
+      </c>
+      <c r="BO11">
+        <v>0.74146000000000001</v>
+      </c>
+      <c r="BP11">
+        <v>0.71213000000000004</v>
+      </c>
+      <c r="BQ11">
+        <v>0.73119000000000001</v>
+      </c>
+      <c r="BR11">
+        <v>0.74102000000000001</v>
+      </c>
+      <c r="BS11">
+        <v>0.76529999999999998</v>
+      </c>
+      <c r="BT11">
+        <v>0.74831999999999999</v>
+      </c>
+      <c r="BU11">
+        <v>0.72560000000000002</v>
+      </c>
+      <c r="BV11">
+        <v>0.77952999999999995</v>
+      </c>
+      <c r="BW11">
+        <v>0.72604000000000002</v>
+      </c>
+      <c r="BX11">
+        <v>0.74173</v>
+      </c>
+      <c r="BY11">
+        <v>0.75380999999999998</v>
+      </c>
+      <c r="BZ11">
+        <v>0.73616000000000004</v>
+      </c>
+      <c r="CA11">
+        <v>0.76410999999999996</v>
+      </c>
+      <c r="CB11">
+        <v>0.75327999999999995</v>
+      </c>
+      <c r="CC11">
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="CD11">
+        <v>0.73326999999999998</v>
+      </c>
+      <c r="CE11">
+        <v>0.73951999999999996</v>
+      </c>
+      <c r="CF11">
+        <v>0.76405000000000001</v>
+      </c>
+      <c r="CG11">
+        <v>0.74702999999999997</v>
+      </c>
+      <c r="CH11">
+        <v>0.73282999999999998</v>
+      </c>
+      <c r="CI11">
+        <v>0.76422999999999996</v>
+      </c>
+      <c r="CJ11">
+        <v>0.75529000000000002</v>
+      </c>
+      <c r="CK11">
+        <v>0.75458999999999998</v>
+      </c>
+      <c r="CL11">
+        <v>0.75407000000000002</v>
+      </c>
+      <c r="CM11">
+        <v>0.76443000000000005</v>
+      </c>
+      <c r="CN11">
+        <v>0.75651000000000002</v>
+      </c>
+      <c r="CO11">
+        <v>0.74894000000000005</v>
+      </c>
+      <c r="CP11">
+        <v>0.75414999999999999</v>
+      </c>
+      <c r="CQ11">
+        <v>0.74690999999999996</v>
+      </c>
+      <c r="CR11">
+        <v>0.75356999999999996</v>
+      </c>
+      <c r="CS11">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="CT11">
+        <v>0.76165000000000005</v>
+      </c>
+      <c r="CU11">
+        <v>0.74702999999999997</v>
+      </c>
+      <c r="CV11">
+        <v>0.77098</v>
+      </c>
+      <c r="CW11">
+        <v>0.7480530999999998</v>
       </c>
     </row>
   </sheetData>
